--- a/src/main/webapp/attached/funds/depart.xlsx
+++ b/src/main/webapp/attached/funds/depart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF90CE-0EBB-4D6F-9615-A42B7D2C74AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56766A-525F-4397-9A1C-4985E1843EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,15 +38,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人补贴项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区域信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>到户金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到户资金名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,9 +380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -395,13 +393,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>

--- a/src/main/webapp/attached/funds/depart.xlsx
+++ b/src/main/webapp/attached/funds/depart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56766A-525F-4397-9A1C-4985E1843EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49282C29-ECE9-4F3B-9F42-61BCAD60EDD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>发放时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,7 +372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -393,13 +387,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -409,21 +403,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>23.06</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43363</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
